--- a/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -337,6 +337,60 @@
   </si>
   <si>
     <t>2024-06-29 15:07:08</t>
+  </si>
+  <si>
+    <t>9840015163</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:17:25</t>
+  </si>
+  <si>
+    <t>9840079337</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:17:46</t>
+  </si>
+  <si>
+    <t>9840067137</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:18:08</t>
+  </si>
+  <si>
+    <t>9840038831</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:18:32</t>
+  </si>
+  <si>
+    <t>9840018394</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:18:53</t>
+  </si>
+  <si>
+    <t>9840003785</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:19:15</t>
+  </si>
+  <si>
+    <t>9840073039</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:19:36</t>
+  </si>
+  <si>
+    <t>9840045470</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:19:57</t>
+  </si>
+  <si>
+    <t>9840009130</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:20:19</t>
   </si>
 </sst>
 </file>
@@ -891,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -993,7 +1047,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>68</v>
@@ -1011,7 +1065,7 @@
         <v>87</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1031,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1064,7 +1118,7 @@
         <v>87</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1084,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1117,7 +1171,7 @@
         <v>87</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1137,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1170,7 +1224,7 @@
         <v>87</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1190,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1223,7 +1277,7 @@
         <v>87</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1243,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1276,7 +1330,7 @@
         <v>87</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1296,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1329,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1349,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1382,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1402,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1435,7 +1489,7 @@
         <v>87</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -391,6 +391,60 @@
   </si>
   <si>
     <t>2024-07-04 14:20:19</t>
+  </si>
+  <si>
+    <t>9840069399</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:14:05</t>
+  </si>
+  <si>
+    <t>9840001693</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:14:33</t>
+  </si>
+  <si>
+    <t>9840006435</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:15:02</t>
+  </si>
+  <si>
+    <t>9840049665</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:15:32</t>
+  </si>
+  <si>
+    <t>9840077127</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:16:02</t>
+  </si>
+  <si>
+    <t>9840076498</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:16:31</t>
+  </si>
+  <si>
+    <t>9840090191</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:00</t>
+  </si>
+  <si>
+    <t>9840085415</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:29</t>
+  </si>
+  <si>
+    <t>9840037192</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:59</t>
   </si>
 </sst>
 </file>
@@ -945,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1047,7 +1101,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>68</v>
@@ -1065,7 +1119,7 @@
         <v>87</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1085,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1118,7 +1172,7 @@
         <v>87</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1138,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1171,7 +1225,7 @@
         <v>87</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1191,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1224,7 +1278,7 @@
         <v>87</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1244,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1277,7 +1331,7 @@
         <v>87</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1297,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1330,7 +1384,7 @@
         <v>87</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1350,7 +1404,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1383,7 +1437,7 @@
         <v>87</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1403,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1436,7 +1490,7 @@
         <v>87</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1456,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1489,7 +1543,7 @@
         <v>87</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC010_WF_RRUserYN_OneConditionY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="105">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -243,208 +243,97 @@
     <t>WebFormId</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>9840069399</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:14:05</t>
+  </si>
+  <si>
+    <t>9840001693</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:14:33</t>
+  </si>
+  <si>
+    <t>9840006435</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:15:02</t>
+  </si>
+  <si>
+    <t>9840049665</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:15:32</t>
+  </si>
+  <si>
+    <t>9840077127</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:16:02</t>
+  </si>
+  <si>
+    <t>9840076498</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:16:31</t>
+  </si>
+  <si>
+    <t>9840090191</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:00</t>
+  </si>
+  <si>
+    <t>9840085415</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:29</t>
+  </si>
+  <si>
+    <t>9840037192</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:17:59</t>
+  </si>
+  <si>
+    <t>9840015623</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:44:35</t>
+  </si>
+  <si>
+    <t>9840070238</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840004050</t>
-  </si>
-  <si>
-    <t>9840075123</t>
-  </si>
-  <si>
-    <t>9840009716</t>
-  </si>
-  <si>
-    <t>9840075788</t>
-  </si>
-  <si>
-    <t>9840012823</t>
-  </si>
-  <si>
-    <t>9840032316</t>
-  </si>
-  <si>
-    <t>9840002374</t>
-  </si>
-  <si>
-    <t>9840000564</t>
-  </si>
-  <si>
-    <t>9840072189</t>
-  </si>
-  <si>
-    <t>9840028916</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:03:58</t>
-  </si>
-  <si>
-    <t>9840066144</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:04:23</t>
-  </si>
-  <si>
-    <t>9840016370</t>
+    <t>2024-12-30 15:45:05</t>
+  </si>
+  <si>
+    <t>9840061977</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-06-29 15:04:46</t>
-  </si>
-  <si>
-    <t>9840066859</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:05:09</t>
-  </si>
-  <si>
-    <t>9840049744</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:05:34</t>
-  </si>
-  <si>
-    <t>9840043873</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:05:57</t>
-  </si>
-  <si>
-    <t>9840029409</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:06:21</t>
-  </si>
-  <si>
-    <t>9840054225</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:06:44</t>
-  </si>
-  <si>
-    <t>9840037498</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:07:08</t>
-  </si>
-  <si>
-    <t>9840015163</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:17:25</t>
-  </si>
-  <si>
-    <t>9840079337</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:17:46</t>
-  </si>
-  <si>
-    <t>9840067137</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:18:08</t>
-  </si>
-  <si>
-    <t>9840038831</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:18:32</t>
-  </si>
-  <si>
-    <t>9840018394</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:18:53</t>
-  </si>
-  <si>
-    <t>9840003785</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:19:15</t>
-  </si>
-  <si>
-    <t>9840073039</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:19:36</t>
-  </si>
-  <si>
-    <t>9840045470</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:19:57</t>
-  </si>
-  <si>
-    <t>9840009130</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:20:19</t>
-  </si>
-  <si>
-    <t>9840069399</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:14:05</t>
-  </si>
-  <si>
-    <t>9840001693</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:14:33</t>
-  </si>
-  <si>
-    <t>9840006435</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:15:02</t>
-  </si>
-  <si>
-    <t>9840049665</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:15:32</t>
-  </si>
-  <si>
-    <t>9840077127</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:16:02</t>
-  </si>
-  <si>
-    <t>9840076498</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:16:31</t>
-  </si>
-  <si>
-    <t>9840090191</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:17:00</t>
-  </si>
-  <si>
-    <t>9840085415</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:17:29</t>
-  </si>
-  <si>
-    <t>9840037192</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:17:59</t>
+    <t>2025-01-03 17:22:52</t>
+  </si>
+  <si>
+    <t>9840069462</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:23:22</t>
   </si>
 </sst>
 </file>
@@ -793,56 +682,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="44" customWidth="true" width="11.42578125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -982,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -999,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1098,10 +987,10 @@
         <v>70</v>
       </c>
       <c r="AM2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>86</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>68</v>
@@ -1116,13 +1005,13 @@
         <v>140</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1169,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="AS3" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1219,16 +1108,16 @@
         <v>54</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS4" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1272,16 +1161,16 @@
         <v>55</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS5" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1325,16 +1214,16 @@
         <v>56</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1378,16 +1267,16 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS7" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1431,16 +1320,16 @@
         <v>53</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS8" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1484,16 +1373,16 @@
         <v>54</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS9" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1537,13 +1426,13 @@
         <v>55</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AS10" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
